--- a/Class.xlsx
+++ b/Class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Names</t>
   </si>
@@ -22,49 +22,10 @@
     <t>Roll Numbers</t>
   </si>
   <si>
-    <t>Rishabh</t>
+    <t>Vansh</t>
   </si>
   <si>
-    <t>Ketki</t>
-  </si>
-  <si>
-    <t>Kaushik</t>
-  </si>
-  <si>
-    <t>Anurag</t>
-  </si>
-  <si>
-    <t>Prathamesh</t>
-  </si>
-  <si>
-    <t>Prashant</t>
-  </si>
-  <si>
-    <t>bailappa</t>
-  </si>
-  <si>
-    <t>vishesh</t>
-  </si>
-  <si>
-    <t>qVishesh</t>
-  </si>
-  <si>
-    <t>Sashikala</t>
-  </si>
-  <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>_x001B_[C_x001B_[2~</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>04</t>
   </si>
 </sst>
 </file>
@@ -422,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,88 +401,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
